--- a/download/bulkUserCredentialForMinimalTimeExam.xlsx
+++ b/download/bulkUserCredentialForMinimalTimeExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,70 +41,85 @@
     <t>Role</t>
   </si>
   <si>
-    <t>dvjjB737</t>
-  </si>
-  <si>
-    <t>exbgpip37</t>
-  </si>
-  <si>
-    <t>X5!r&amp;Gq2</t>
+    <t>lIJgc882</t>
+  </si>
+  <si>
+    <t>cycxjtt77</t>
+  </si>
+  <si>
+    <t>a&amp;$A3p7E</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>LmnlFMkK</t>
-  </si>
-  <si>
-    <t>KLfZ</t>
+    <t>ZHsOXLqu</t>
+  </si>
+  <si>
+    <t>BGTT</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>KxbjB928</t>
-  </si>
-  <si>
-    <t>mldfrft48</t>
-  </si>
-  <si>
-    <t>Ja9%N7x$</t>
-  </si>
-  <si>
-    <t>PSgJEXkU</t>
-  </si>
-  <si>
-    <t>viiC</t>
-  </si>
-  <si>
-    <t>HAlPw446</t>
-  </si>
-  <si>
-    <t>iyiiors16</t>
-  </si>
-  <si>
-    <t>u&amp;2H%pS4</t>
-  </si>
-  <si>
-    <t>JSyHNNWG</t>
-  </si>
-  <si>
-    <t>zQlr</t>
-  </si>
-  <si>
-    <t>vaTQN951</t>
-  </si>
-  <si>
-    <t>wquueqb39</t>
-  </si>
-  <si>
-    <t>Yr7&amp;Q8x%</t>
-  </si>
-  <si>
-    <t>kkGAAPzC</t>
-  </si>
-  <si>
-    <t>YfsI</t>
+    <t>kQWks262</t>
+  </si>
+  <si>
+    <t>gkkkjqj87</t>
+  </si>
+  <si>
+    <t>sXF%3g2&amp;</t>
+  </si>
+  <si>
+    <t>itHBbNUU</t>
+  </si>
+  <si>
+    <t>BNZG</t>
+  </si>
+  <si>
+    <t>bxKYK840</t>
+  </si>
+  <si>
+    <t>cnhskzy54</t>
+  </si>
+  <si>
+    <t>Qwy2$9%M</t>
+  </si>
+  <si>
+    <t>nRWTiheZ</t>
+  </si>
+  <si>
+    <t>NDhD</t>
+  </si>
+  <si>
+    <t>XPCuN181</t>
+  </si>
+  <si>
+    <t>zwploqj61</t>
+  </si>
+  <si>
+    <t>zk!64M#U</t>
+  </si>
+  <si>
+    <t>PnucoaGW</t>
+  </si>
+  <si>
+    <t>ybmZ</t>
+  </si>
+  <si>
+    <t>uXYmz219</t>
+  </si>
+  <si>
+    <t>wootqrz97</t>
+  </si>
+  <si>
+    <t>SNe6&amp;7%q</t>
+  </si>
+  <si>
+    <t>lltIEWTQ</t>
+  </si>
+  <si>
+    <t>dPlx</t>
   </si>
 </sst>
 </file>
@@ -472,10 +487,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H5"/>
+      <selection activeCell="A1" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -511,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004175</v>
+        <v>231006216</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -537,7 +552,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231004174</v>
+        <v>231006215</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -563,7 +578,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231004173</v>
+        <v>231006214</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -589,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231004172</v>
+        <v>231006213</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -607,6 +622,32 @@
         <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>231006212</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForMinimalTimeExam.xlsx
+++ b/download/bulkUserCredentialForMinimalTimeExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,85 +41,70 @@
     <t>Role</t>
   </si>
   <si>
-    <t>lIJgc882</t>
-  </si>
-  <si>
-    <t>cycxjtt77</t>
-  </si>
-  <si>
-    <t>a&amp;$A3p7E</t>
+    <t>dvjjB737</t>
+  </si>
+  <si>
+    <t>exbgpip37</t>
+  </si>
+  <si>
+    <t>X5!r&amp;Gq2</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>ZHsOXLqu</t>
-  </si>
-  <si>
-    <t>BGTT</t>
+    <t>LmnlFMkK</t>
+  </si>
+  <si>
+    <t>KLfZ</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>kQWks262</t>
-  </si>
-  <si>
-    <t>gkkkjqj87</t>
-  </si>
-  <si>
-    <t>sXF%3g2&amp;</t>
-  </si>
-  <si>
-    <t>itHBbNUU</t>
-  </si>
-  <si>
-    <t>BNZG</t>
-  </si>
-  <si>
-    <t>bxKYK840</t>
-  </si>
-  <si>
-    <t>cnhskzy54</t>
-  </si>
-  <si>
-    <t>Qwy2$9%M</t>
-  </si>
-  <si>
-    <t>nRWTiheZ</t>
-  </si>
-  <si>
-    <t>NDhD</t>
-  </si>
-  <si>
-    <t>XPCuN181</t>
-  </si>
-  <si>
-    <t>zwploqj61</t>
-  </si>
-  <si>
-    <t>zk!64M#U</t>
-  </si>
-  <si>
-    <t>PnucoaGW</t>
-  </si>
-  <si>
-    <t>ybmZ</t>
-  </si>
-  <si>
-    <t>uXYmz219</t>
-  </si>
-  <si>
-    <t>wootqrz97</t>
-  </si>
-  <si>
-    <t>SNe6&amp;7%q</t>
-  </si>
-  <si>
-    <t>lltIEWTQ</t>
-  </si>
-  <si>
-    <t>dPlx</t>
+    <t>KxbjB928</t>
+  </si>
+  <si>
+    <t>mldfrft48</t>
+  </si>
+  <si>
+    <t>Ja9%N7x$</t>
+  </si>
+  <si>
+    <t>PSgJEXkU</t>
+  </si>
+  <si>
+    <t>viiC</t>
+  </si>
+  <si>
+    <t>HAlPw446</t>
+  </si>
+  <si>
+    <t>iyiiors16</t>
+  </si>
+  <si>
+    <t>u&amp;2H%pS4</t>
+  </si>
+  <si>
+    <t>JSyHNNWG</t>
+  </si>
+  <si>
+    <t>zQlr</t>
+  </si>
+  <si>
+    <t>vaTQN951</t>
+  </si>
+  <si>
+    <t>wquueqb39</t>
+  </si>
+  <si>
+    <t>Yr7&amp;Q8x%</t>
+  </si>
+  <si>
+    <t>kkGAAPzC</t>
+  </si>
+  <si>
+    <t>YfsI</t>
   </si>
 </sst>
 </file>
@@ -487,10 +472,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H6"/>
+      <selection activeCell="A1" sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231006216</v>
+        <v>231004175</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -552,7 +537,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231006215</v>
+        <v>231004174</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -578,7 +563,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231006214</v>
+        <v>231004173</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -604,7 +589,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231006213</v>
+        <v>231004172</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -622,32 +607,6 @@
         <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2">
-        <v>231006212</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForMinimalTimeExam.xlsx
+++ b/download/bulkUserCredentialForMinimalTimeExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,70 +41,85 @@
     <t>Role</t>
   </si>
   <si>
-    <t>dvjjB737</t>
-  </si>
-  <si>
-    <t>exbgpip37</t>
-  </si>
-  <si>
-    <t>X5!r&amp;Gq2</t>
+    <t>ugslZ418</t>
+  </si>
+  <si>
+    <t>ltottxv52</t>
+  </si>
+  <si>
+    <t>Q&amp;x!67Sq</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>LmnlFMkK</t>
-  </si>
-  <si>
-    <t>KLfZ</t>
+    <t>UsyZihDX</t>
+  </si>
+  <si>
+    <t>xvsd</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>KxbjB928</t>
-  </si>
-  <si>
-    <t>mldfrft48</t>
-  </si>
-  <si>
-    <t>Ja9%N7x$</t>
-  </si>
-  <si>
-    <t>PSgJEXkU</t>
-  </si>
-  <si>
-    <t>viiC</t>
-  </si>
-  <si>
-    <t>HAlPw446</t>
-  </si>
-  <si>
-    <t>iyiiors16</t>
-  </si>
-  <si>
-    <t>u&amp;2H%pS4</t>
-  </si>
-  <si>
-    <t>JSyHNNWG</t>
-  </si>
-  <si>
-    <t>zQlr</t>
-  </si>
-  <si>
-    <t>vaTQN951</t>
-  </si>
-  <si>
-    <t>wquueqb39</t>
-  </si>
-  <si>
-    <t>Yr7&amp;Q8x%</t>
-  </si>
-  <si>
-    <t>kkGAAPzC</t>
-  </si>
-  <si>
-    <t>YfsI</t>
+    <t>EymBh619</t>
+  </si>
+  <si>
+    <t>ezvsenq19</t>
+  </si>
+  <si>
+    <t>n%5hPS4!</t>
+  </si>
+  <si>
+    <t>jSOQfLlV</t>
+  </si>
+  <si>
+    <t>WrSW</t>
+  </si>
+  <si>
+    <t>MPszX650</t>
+  </si>
+  <si>
+    <t>ftqbujt18</t>
+  </si>
+  <si>
+    <t>D8$dSq3!</t>
+  </si>
+  <si>
+    <t>NvkYrwyA</t>
+  </si>
+  <si>
+    <t>FaXr</t>
+  </si>
+  <si>
+    <t>VFUmf147</t>
+  </si>
+  <si>
+    <t>ubaytlu22</t>
+  </si>
+  <si>
+    <t>b!DM4r3&amp;</t>
+  </si>
+  <si>
+    <t>MQwRDcpH</t>
+  </si>
+  <si>
+    <t>REwv</t>
+  </si>
+  <si>
+    <t>mZIYS782</t>
+  </si>
+  <si>
+    <t>hyamvsw72</t>
+  </si>
+  <si>
+    <t>EZk62w$#</t>
+  </si>
+  <si>
+    <t>xLLKASPY</t>
+  </si>
+  <si>
+    <t>ivpn</t>
   </si>
 </sst>
 </file>
@@ -472,10 +487,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H5"/>
+      <selection activeCell="A1" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -511,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004175</v>
+        <v>231011196</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -537,7 +552,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231004174</v>
+        <v>231011195</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -563,7 +578,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231004173</v>
+        <v>231011194</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -589,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231004172</v>
+        <v>231011193</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -607,6 +622,32 @@
         <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>231011192</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForMinimalTimeExam.xlsx
+++ b/download/bulkUserCredentialForMinimalTimeExam.xlsx
@@ -41,85 +41,85 @@
     <t>Role</t>
   </si>
   <si>
-    <t>ugslZ418</t>
-  </si>
-  <si>
-    <t>ltottxv52</t>
-  </si>
-  <si>
-    <t>Q&amp;x!67Sq</t>
+    <t>TOwRZ193</t>
+  </si>
+  <si>
+    <t>ewyetqi16</t>
+  </si>
+  <si>
+    <t>vJ2!Qx9#</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>UsyZihDX</t>
-  </si>
-  <si>
-    <t>xvsd</t>
+    <t>PxgDTjeZ</t>
+  </si>
+  <si>
+    <t>fkIp</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>EymBh619</t>
-  </si>
-  <si>
-    <t>ezvsenq19</t>
-  </si>
-  <si>
-    <t>n%5hPS4!</t>
-  </si>
-  <si>
-    <t>jSOQfLlV</t>
-  </si>
-  <si>
-    <t>WrSW</t>
-  </si>
-  <si>
-    <t>MPszX650</t>
-  </si>
-  <si>
-    <t>ftqbujt18</t>
-  </si>
-  <si>
-    <t>D8$dSq3!</t>
-  </si>
-  <si>
-    <t>NvkYrwyA</t>
-  </si>
-  <si>
-    <t>FaXr</t>
-  </si>
-  <si>
-    <t>VFUmf147</t>
-  </si>
-  <si>
-    <t>ubaytlu22</t>
-  </si>
-  <si>
-    <t>b!DM4r3&amp;</t>
-  </si>
-  <si>
-    <t>MQwRDcpH</t>
-  </si>
-  <si>
-    <t>REwv</t>
-  </si>
-  <si>
-    <t>mZIYS782</t>
-  </si>
-  <si>
-    <t>hyamvsw72</t>
-  </si>
-  <si>
-    <t>EZk62w$#</t>
-  </si>
-  <si>
-    <t>xLLKASPY</t>
-  </si>
-  <si>
-    <t>ivpn</t>
+    <t>MvgtV465</t>
+  </si>
+  <si>
+    <t>kibwrae25</t>
+  </si>
+  <si>
+    <t>zpD7B8#!</t>
+  </si>
+  <si>
+    <t>OOaUCSoA</t>
+  </si>
+  <si>
+    <t>CWih</t>
+  </si>
+  <si>
+    <t>mwJan935</t>
+  </si>
+  <si>
+    <t>sdbhhpm91</t>
+  </si>
+  <si>
+    <t>q$9Cj6#P</t>
+  </si>
+  <si>
+    <t>rqYuFLtt</t>
+  </si>
+  <si>
+    <t>ivBw</t>
+  </si>
+  <si>
+    <t>aEDoW811</t>
+  </si>
+  <si>
+    <t>aedlaxh17</t>
+  </si>
+  <si>
+    <t>p7Z4#%Bx</t>
+  </si>
+  <si>
+    <t>sRlxpqNv</t>
+  </si>
+  <si>
+    <t>zgCV</t>
+  </si>
+  <si>
+    <t>pzCwW885</t>
+  </si>
+  <si>
+    <t>odnxygy77</t>
+  </si>
+  <si>
+    <t>n8D#q$Q5</t>
+  </si>
+  <si>
+    <t>XqQHIoQU</t>
+  </si>
+  <si>
+    <t>akPR</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231011196</v>
+        <v>23102854</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -552,7 +552,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231011195</v>
+        <v>23102853</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -578,7 +578,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231011194</v>
+        <v>23102852</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -604,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231011193</v>
+        <v>23102851</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231011192</v>
+        <v>23102850</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>

--- a/download/bulkUserCredentialForMinimalTimeExam.xlsx
+++ b/download/bulkUserCredentialForMinimalTimeExam.xlsx
@@ -41,85 +41,85 @@
     <t>Role</t>
   </si>
   <si>
-    <t>TOwRZ193</t>
-  </si>
-  <si>
-    <t>ewyetqi16</t>
-  </si>
-  <si>
-    <t>vJ2!Qx9#</t>
+    <t>JuwWN785</t>
+  </si>
+  <si>
+    <t>tbxreyl54</t>
+  </si>
+  <si>
+    <t>UF6#kj9%</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>PxgDTjeZ</t>
-  </si>
-  <si>
-    <t>fkIp</t>
+    <t>iZmSWKXL</t>
+  </si>
+  <si>
+    <t>XXRA</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>MvgtV465</t>
-  </si>
-  <si>
-    <t>kibwrae25</t>
-  </si>
-  <si>
-    <t>zpD7B8#!</t>
-  </si>
-  <si>
-    <t>OOaUCSoA</t>
-  </si>
-  <si>
-    <t>CWih</t>
-  </si>
-  <si>
-    <t>mwJan935</t>
-  </si>
-  <si>
-    <t>sdbhhpm91</t>
-  </si>
-  <si>
-    <t>q$9Cj6#P</t>
-  </si>
-  <si>
-    <t>rqYuFLtt</t>
-  </si>
-  <si>
-    <t>ivBw</t>
-  </si>
-  <si>
-    <t>aEDoW811</t>
-  </si>
-  <si>
-    <t>aedlaxh17</t>
-  </si>
-  <si>
-    <t>p7Z4#%Bx</t>
-  </si>
-  <si>
-    <t>sRlxpqNv</t>
-  </si>
-  <si>
-    <t>zgCV</t>
-  </si>
-  <si>
-    <t>pzCwW885</t>
-  </si>
-  <si>
-    <t>odnxygy77</t>
-  </si>
-  <si>
-    <t>n8D#q$Q5</t>
-  </si>
-  <si>
-    <t>XqQHIoQU</t>
-  </si>
-  <si>
-    <t>akPR</t>
+    <t>ilAbq356</t>
+  </si>
+  <si>
+    <t>psulted40</t>
+  </si>
+  <si>
+    <t>Ta$bU7!3</t>
+  </si>
+  <si>
+    <t>BBrsqHli</t>
+  </si>
+  <si>
+    <t>dmHP</t>
+  </si>
+  <si>
+    <t>QxsZx405</t>
+  </si>
+  <si>
+    <t>mftatws42</t>
+  </si>
+  <si>
+    <t>x&amp;29RyZ!</t>
+  </si>
+  <si>
+    <t>TqDKIpSs</t>
+  </si>
+  <si>
+    <t>wTns</t>
+  </si>
+  <si>
+    <t>yNbqA358</t>
+  </si>
+  <si>
+    <t>ynzlilw95</t>
+  </si>
+  <si>
+    <t>Cc#6B&amp;u4</t>
+  </si>
+  <si>
+    <t>iLqXOXwy</t>
+  </si>
+  <si>
+    <t>FHQf</t>
+  </si>
+  <si>
+    <t>OeZwP266</t>
+  </si>
+  <si>
+    <t>dnforsk61</t>
+  </si>
+  <si>
+    <t>p!tZ4#9G</t>
+  </si>
+  <si>
+    <t>bDgDhhOt</t>
+  </si>
+  <si>
+    <t>qsrc</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23102854</v>
+        <v>231102244</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -552,7 +552,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23102853</v>
+        <v>231102243</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -578,7 +578,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>23102852</v>
+        <v>231102242</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -604,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>23102851</v>
+        <v>231102241</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>23102850</v>
+        <v>231102240</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>

--- a/download/bulkUserCredentialForMinimalTimeExam.xlsx
+++ b/download/bulkUserCredentialForMinimalTimeExam.xlsx
@@ -41,85 +41,85 @@
     <t>Role</t>
   </si>
   <si>
-    <t>JuwWN785</t>
-  </si>
-  <si>
-    <t>tbxreyl54</t>
-  </si>
-  <si>
-    <t>UF6#kj9%</t>
+    <t>CIO12057</t>
+  </si>
+  <si>
+    <t>candidatepfm12057</t>
+  </si>
+  <si>
+    <t>Elumina@179</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>iZmSWKXL</t>
-  </si>
-  <si>
-    <t>XXRA</t>
-  </si>
-  <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>ilAbq356</t>
-  </si>
-  <si>
-    <t>psulted40</t>
-  </si>
-  <si>
-    <t>Ta$bU7!3</t>
-  </si>
-  <si>
-    <t>BBrsqHli</t>
-  </si>
-  <si>
-    <t>dmHP</t>
-  </si>
-  <si>
-    <t>QxsZx405</t>
-  </si>
-  <si>
-    <t>mftatws42</t>
-  </si>
-  <si>
-    <t>x&amp;29RyZ!</t>
-  </si>
-  <si>
-    <t>TqDKIpSs</t>
-  </si>
-  <si>
-    <t>wTns</t>
-  </si>
-  <si>
-    <t>yNbqA358</t>
-  </si>
-  <si>
-    <t>ynzlilw95</t>
-  </si>
-  <si>
-    <t>Cc#6B&amp;u4</t>
-  </si>
-  <si>
-    <t>iLqXOXwy</t>
-  </si>
-  <si>
-    <t>FHQf</t>
-  </si>
-  <si>
-    <t>OeZwP266</t>
-  </si>
-  <si>
-    <t>dnforsk61</t>
-  </si>
-  <si>
-    <t>p!tZ4#9G</t>
-  </si>
-  <si>
-    <t>bDgDhhOt</t>
-  </si>
-  <si>
-    <t>qsrc</t>
+    <t>PFTMM</t>
+  </si>
+  <si>
+    <t>CIO12056</t>
+  </si>
+  <si>
+    <t>candidatepfm12056</t>
+  </si>
+  <si>
+    <t>Elumina@178</t>
+  </si>
+  <si>
+    <t>CIO12055</t>
+  </si>
+  <si>
+    <t>candidatepfm12055</t>
+  </si>
+  <si>
+    <t>Elumina@177</t>
+  </si>
+  <si>
+    <t>CIO12054</t>
+  </si>
+  <si>
+    <t>candidatepfm12054</t>
+  </si>
+  <si>
+    <t>Elumina@176</t>
+  </si>
+  <si>
+    <t>CIO12053</t>
+  </si>
+  <si>
+    <t>candidatepfm12053</t>
+  </si>
+  <si>
+    <t>Elumina@175</t>
+  </si>
+  <si>
+    <t>CIO12052</t>
+  </si>
+  <si>
+    <t>candidatepfm12052</t>
+  </si>
+  <si>
+    <t>Elumina@174</t>
+  </si>
+  <si>
+    <t>CIO12051</t>
+  </si>
+  <si>
+    <t>candidatepfm12051</t>
+  </si>
+  <si>
+    <t>Elumina@173</t>
+  </si>
+  <si>
+    <t>CIO12050</t>
+  </si>
+  <si>
+    <t>candidatepfm12050</t>
+  </si>
+  <si>
+    <t>Elumina@172</t>
   </si>
 </sst>
 </file>
@@ -487,10 +487,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H6"/>
+      <selection activeCell="A1" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231102244</v>
+        <v>20123201</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -544,111 +544,189 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20123200</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2">
-        <v>231102243</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>231102242</v>
+        <v>20123199</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>231102241</v>
+        <v>20123198</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
-        <v>231102240</v>
+        <v>20123197</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20123196</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20123195</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20123194</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
